--- a/craw.xlsx
+++ b/craw.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D171"/>
+  <dimension ref="A1:D173"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -477,12 +477,12 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t xml:space="preserve">  a k</t>
+          <t xml:space="preserve">  형주부인</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>아니 진짜 형주님 뭐하시는분이에요 뭔데 요리 진짜 잘함? 쪽갈비 김치찜이랑 쪽갈비 바베큐하는데 거의 주부경력 10년 어머님들급으로 거침없이 양념하고 준비하는거 베테랑 주부님들이랑 모습이 겹쳐서 놀랍네요.. 이게 요섹남인가?</t>
+          <t>송형주 날이 갈수록 귀여워지네 .. ️‍4:18 저절로 웃게 돼 ㅋㅋㅋㅋ ㅜ ㅜ가요제 영상도 얼른 보고싶다 .. 기대중 !</t>
         </is>
       </c>
     </row>
@@ -495,12 +495,12 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t xml:space="preserve">  형주부인</t>
+          <t xml:space="preserve">  a k</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>송형주 날이 갈수록 귀여워지네 .. ️‍4:18 저절로 웃게 돼 ㅋㅋㅋㅋ ㅜ ㅜ가요제 영상도 얼른 보고싶다 .. 기대중 !</t>
+          <t>아니 진짜 형주님 뭐하시는분이에요 뭔데 요리 진짜 잘함? 쪽갈비 김치찜이랑 쪽갈비 바베큐하는데 거의 주부경력 10년 어머님들급으로 거침없이 양념하고 준비하는거 베테랑 주부님들이랑 모습이 겹쳐서 놀랍네요.. 이게 요섹남인가?</t>
         </is>
       </c>
     </row>
@@ -531,12 +531,12 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t xml:space="preserve">  황승현</t>
+          <t xml:space="preserve">  Bride of Yeshua</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>선응이형은 뭘해줘도 진짜 맛있게먹네</t>
+          <t>오늘은 조지가 분량 다 챙기네ㅋㅋ 형들 말이 없어서</t>
         </is>
       </c>
     </row>
@@ -549,12 +549,12 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t xml:space="preserve">  MJ</t>
+          <t xml:space="preserve">  황승현</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>저렇게 잘해먹으면 부모님들 진짜 행복할듯</t>
+          <t>선응이형은 뭘해줘도 진짜 맛있게먹네</t>
         </is>
       </c>
     </row>
@@ -567,12 +567,12 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이주헌예비신랑</t>
+          <t xml:space="preserve">  IilIliIlilliI</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>와 진짜 비주얼 미쳤다ㅠㅠㅠㅠㅠㅠㅠ핫식당 보면서 침 최고로 많이 고인거 같아요••••집가면 등갈비 김치찜 해달라고 해야게써요,,,,,츄베릅</t>
+          <t>핫소스, 배말랭, 황룡갑에 핫식당까지 같은 날 나온 역사적인 날이다</t>
         </is>
       </c>
     </row>
@@ -585,12 +585,12 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t xml:space="preserve">  댤댤</t>
+          <t xml:space="preserve">  킹성은</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>조지가 엉아들 대신 분량채워주는거봐ㅜㅜ 귀여워</t>
+          <t>제가 드리지않은 쪽갈비네요맛있게 드시는거 보니 기분이 좋습니다 ㅎㅎ다음에 또 기회가 있다면 다른 부위로 준비하지 않겠습니다</t>
         </is>
       </c>
     </row>
@@ -603,12 +603,12 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Bride of Yeshua</t>
+          <t xml:space="preserve">  이주헌예비신랑</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>오늘은 조지가 분량 다 챙기네ㅋㅋ 형들 말이 없어서</t>
+          <t>와 진짜 비주얼 미쳤다ㅠㅠㅠㅠㅠㅠㅠ핫식당 보면서 침 최고로 많이 고인거 같아요••••집가면 등갈비 김치찜 해달라고 해야게써요,,,,,츄베릅</t>
         </is>
       </c>
     </row>
@@ -621,12 +621,12 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t xml:space="preserve">  maltesers</t>
+          <t xml:space="preserve">  MJ</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>조지 계속 올라오는거 너무 귀엽다!!</t>
+          <t>저렇게 잘해먹으면 부모님들 진짜 행복할듯</t>
         </is>
       </c>
     </row>
@@ -639,12 +639,12 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ho seung Jang</t>
+          <t xml:space="preserve">  무말랭</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>형주형 볼때마다계량 안하고 슥슥 넣는거 진짜 신기하다요리 너무 잘해 섹시해</t>
+          <t>등갈비 드실 때 한조각 정도만 아무 간 하지마시고 물에 끓여서 조지 하나만 주세요ㅜ 저희 집 강아지들도 가끔 그렇게 한조각씩 주는데 앞발로 잡고 앞니로 뜯어먹는데 겁나 귀엽습니다…. 조지가 등갈비 먹을 땐 뼈를 삼킬 수 있으니 옆에서 지켜봐주세요-!!</t>
         </is>
       </c>
     </row>
@@ -657,12 +657,12 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김찬호</t>
+          <t xml:space="preserve">  댤댤</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>이때까지 보면서 뺏아먹고싶다고 생각한적은 없는데 진짜 개맛있겠다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>조지가 엉아들 대신 분량채워주는거봐ㅜㅜ 귀여워</t>
         </is>
       </c>
     </row>
@@ -675,12 +675,12 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김찬호</t>
+          <t xml:space="preserve">  Ho seung Jang</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>조지 ㅋㅋㅋㅋㅋㅋㅋ 오늘 형들 너무 맛있게 먹는다고 말 없어서 분량 대신 채우네 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>형주형 볼때마다계량 안하고 슥슥 넣는거 진짜 신기하다요리 너무 잘해 섹시해</t>
         </is>
       </c>
     </row>
@@ -693,12 +693,12 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t xml:space="preserve">  IilIliIlilliI</t>
+          <t xml:space="preserve">  TheBkuser</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>핫소스, 배말랭, 황룡갑에 핫식당까지 같은 날 나온 역사적인 날이다</t>
+          <t>선응이가 맛있는거 먹을때 말안하면 말 많이한건 맛이 없다는거네... ㅠㅠㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -711,12 +711,12 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t xml:space="preserve">  음뫄핫소스만보면심장이뛰어서 잠을못자</t>
+          <t xml:space="preserve">  갓냥이</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>와...진짜맛있겠다,.미틴,.ㅜㅜㅜㅜ 왜 새로 올라올때마다 역대급으로 맛있어보이는거냐구요!ㅜㅜ</t>
+          <t>이반응은 찐인데..조지도 미쳤네</t>
         </is>
       </c>
     </row>
@@ -734,7 +734,7 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>0:08 와 오빠 그거 ㅠㅠ 내가 ㅠㅠ 준 거야 ㅠㅠ 대박 🥹🥹 너무 좋아서 손 떨려 송형주 사랑한다️</t>
+          <t>5:33 맛있다고 눈 크게 뜨고 가리키는 거 진짜 개귀여움 ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -747,12 +747,12 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t xml:space="preserve">  인센티브</t>
+          <t xml:space="preserve">  김찬호</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>와 핫식당 역대급 비쥬얼이다... 진짜 맛있어보인다ㅜㅜ</t>
+          <t>이때까지 보면서 뺏아먹고싶다고 생각한적은 없는데 진짜 개맛있겠다 ㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -765,12 +765,12 @@
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t xml:space="preserve">  음음</t>
+          <t xml:space="preserve">  송형주의 운명의 여자</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>다음 배말랭 영상 제목팬이 주신 쪽갈비 뼈로 하루 세끼만들기</t>
+          <t>0:08 와 오빠 그거 ㅠㅠ 내가 ㅠㅠ 준 거야 ㅠㅠ 대박 🥹🥹 너무 좋아서 손 떨려 송형주 사랑한다️</t>
         </is>
       </c>
     </row>
@@ -783,12 +783,12 @@
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t xml:space="preserve">  whtjddnr00</t>
+          <t xml:space="preserve">  maltesers</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>08:47 저거 진짜 맛있었나봄 ㅋㅋㅋ 영혼없이 말하시네 ㅋㅋㅋㅋㅋ 나도 먹고 싶두아 ㅜㅜ</t>
+          <t>조지 계속 올라오는거 너무 귀엽다!!</t>
         </is>
       </c>
     </row>
@@ -801,12 +801,12 @@
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t xml:space="preserve">  방형욱</t>
+          <t xml:space="preserve">  김찬호</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>핫소스유니버스 4개 채널 연속 업로드는 못참아~</t>
+          <t>조지 ㅋㅋㅋㅋㅋㅋㅋ 오늘 형들 너무 맛있게 먹는다고 말 없어서 분량 대신 채우네 ㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -819,12 +819,12 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t xml:space="preserve">  로나로나</t>
+          <t xml:space="preserve">  음음</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>와 ㅠㅠㅠ조지미쳤어요 너무 귀여워서 계속 조지부분만 돌려보게되네요</t>
+          <t>다음 배말랭 영상 제목팬이 주신 쪽갈비 뼈로 하루 세끼만들기</t>
         </is>
       </c>
     </row>
@@ -837,12 +837,12 @@
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Ubiquitous</t>
+          <t xml:space="preserve">  인센티브</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>현종이형 왜케 귀엽지…?</t>
+          <t>와 핫식당 역대급 비쥬얼이다... 진짜 맛있어보인다ㅜㅜ</t>
         </is>
       </c>
     </row>
@@ -855,12 +855,12 @@
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t xml:space="preserve">  심준호</t>
+          <t xml:space="preserve">  Black</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>선응이형 맥주에 후추뿌려먹는거 알려주세요 제발요ㅠㅠㅠ</t>
+          <t>핫소스 소시지 가랑이에 끼우고 자르기 몰카 다시보고싶다 ㅠㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -873,12 +873,12 @@
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t xml:space="preserve">  태키</t>
+          <t xml:space="preserve">  음뫄핫소스만보면심장이뛰어서 잠을못자</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>핫식당 유니버스엔 아직 선응머리의 온기가... 남아있어.. 역대급 멀티버스;</t>
+          <t>와...진짜맛있겠다,.미틴,.ㅜㅜㅜㅜ 왜 새로 올라올때마다 역대급으로 맛있어보이는거냐구요!ㅜㅜ</t>
         </is>
       </c>
     </row>
@@ -891,12 +891,12 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t xml:space="preserve">  킹성은</t>
+          <t xml:space="preserve">  방형욱</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>제가 드리지않은 쪽갈비네요맛있게 드시는거 보니 기분이 좋습니다 ㅎㅎ다음에 또 기회가 있다면 다른 부위로 준비하지 않겠습니다</t>
+          <t>핫소스유니버스 4개 채널 연속 업로드는 못참아~</t>
         </is>
       </c>
     </row>
@@ -909,12 +909,12 @@
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t xml:space="preserve">  애옹 미</t>
+          <t xml:space="preserve">  Ubiquitous</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>해성햄 진짜 아가야.. 귀여워..</t>
+          <t>현종이형 왜케 귀엽지…?</t>
         </is>
       </c>
     </row>
@@ -927,12 +927,12 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t xml:space="preserve">  정진선 JEONG JINS2ON</t>
+          <t xml:space="preserve">  HanYong Lee</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>진짜 먹고 싶다.... 조지기분 알거 같아.</t>
+          <t>황룡갑이랑 동갑인 구독자만 모아서  그 중에서 사연으로 1명 초대해서 황동갑이라는 프로그램 하나만들어서 구독자랑 해성이랑같이 밥먹는 영상 매주 올라오면 재밌겠다</t>
         </is>
       </c>
     </row>
@@ -945,12 +945,12 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t xml:space="preserve">  크크루삥뽕</t>
+          <t xml:space="preserve">  국그릇핑크뽕</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>쪽갈비 주신분 흐뭇하게 보시겠다</t>
+          <t>형주 음식은 못참지 핡</t>
         </is>
       </c>
     </row>
@@ -963,12 +963,12 @@
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김민준</t>
+          <t xml:space="preserve">  임마뭐</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>선응이 형 여기선 머리가 있네...행복해보여 좋다...!</t>
+          <t>와 형주햄 요리 진.짜 잘한다</t>
         </is>
       </c>
     </row>
@@ -981,12 +981,12 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t xml:space="preserve">  경준</t>
+          <t xml:space="preserve">  태키</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>선응이형 ㅋㅋㅋ 김ㅊ 양념 쪽갈비에 묻혀놓고 덜어내는건 모야 ㅋㅋㅋㅋㅋㅋ</t>
+          <t>핫식당 유니버스엔 아직 선응머리의 온기가... 남아있어.. 역대급 멀티버스;</t>
         </is>
       </c>
     </row>
@@ -999,12 +999,12 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t xml:space="preserve">  아름다운 세상아</t>
+          <t xml:space="preserve">  로나로나</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>말없이 먹는 거만 봐도 재밌긴해 ㅋㅋ</t>
+          <t>와 ㅠㅠㅠ조지미쳤어요 너무 귀여워서 계속 조지부분만 돌려보게되네요</t>
         </is>
       </c>
     </row>
@@ -1017,12 +1017,12 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t xml:space="preserve">  송형주의 운명의 여자</t>
+          <t xml:space="preserve">  whtjddnr00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>5:33 맛있다고 눈 크게 뜨고 가리키는 거 진짜 개귀여움 ㅠㅠㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>08:47 저거 진짜 맛있었나봄 ㅋㅋㅋ 영혼없이 말하시네 ㅋㅋㅋㅋㅋ 나도 먹고 싶두아 ㅜㅜ</t>
         </is>
       </c>
     </row>
@@ -1035,12 +1035,12 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김수재</t>
+          <t xml:space="preserve">  심준호</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>이거 보고 소맥에 후추 넣었다가 다 먹고 치울 때 까지 후추맛남 ㅋㅋㅋㅋㅋㅋ</t>
+          <t>선응이형 맥주에 후추뿌려먹는거 알려주세요 제발요ㅠㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -1053,12 +1053,12 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t xml:space="preserve">  어잌후</t>
+          <t xml:space="preserve">  jjajajan</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>요리를 거침없이하시네 부럽다</t>
+          <t>맛있게 드시네요..ㅋㅋ요즘 샤로수길에 덮다에서 도전먹방하는 영상 많이 올라오는데핫소스님들도 도전 안하더라도 맛있게 먹는 모습 보고싶네요ㅎㅎ</t>
         </is>
       </c>
     </row>
@@ -1071,12 +1071,12 @@
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t xml:space="preserve">  민지</t>
+          <t xml:space="preserve">  우클릭</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>귀여워 징챠 다들 ㅠㅠ ㅋㅋㅋㅋㅋㅋ 🫶</t>
+          <t>선응이형 머리밀리기 전이구나... 행복해보이네 ㅎㅎㅎㅎㅎ</t>
         </is>
       </c>
     </row>
@@ -1089,12 +1089,12 @@
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김지원</t>
+          <t xml:space="preserve">  민아달려</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>현종이 형도 유튜브 시작했으면 좋겠다....!!!</t>
+          <t>선응형 형주형 해성이형 건우형 현종이형 핫식당 할때 한명씩 안나올때 뭐하는지 궁금해용 오늘은 건우햄이 없으시네용</t>
         </is>
       </c>
     </row>
@@ -1107,12 +1107,12 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t xml:space="preserve">  민아달려</t>
+          <t xml:space="preserve">  시기</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>선응형 형주형 해성이형 건우형 현종이형 핫식당 할때 한명씩 안나올때 뭐하는지 궁금해용 오늘은 건우햄이 없으시네용</t>
+          <t xml:space="preserve">아니 형주님이랑 결혼하시는 분 찐 행복할 듯...요리 넘 잘해,, </t>
         </is>
       </c>
     </row>
@@ -1125,12 +1125,12 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김사랑스럽지</t>
+          <t xml:space="preserve">  형주내꺼</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>선응행 맥주 마실 줄 아네 맥주에 후추 넣어 먹으면 은근 맛깄음</t>
+          <t>을매나 맛있으면 조지가 ,, 핫소스분들도 그렇고  다들 잘먹어서 뿌듯하네요</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t xml:space="preserve">  태지</t>
+          <t xml:space="preserve">  김민준</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>6:27역시... 광고할때 너무 재밌고 시끌시끌 너무 맛있게 먹더라</t>
+          <t>선응이 형 여기선 머리가 있네...행복해보여 좋다...!</t>
         </is>
       </c>
     </row>
@@ -1161,12 +1161,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조은</t>
+          <t xml:space="preserve">  어잌후</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
         <is>
-          <t>괴롭히는만큼 잘해먹이네 ㅋㅋㅋㅋ선응아 부럽다ㅠㅠ</t>
+          <t>요리를 거침없이하시네 부럽다</t>
         </is>
       </c>
     </row>
@@ -1179,12 +1179,12 @@
       </c>
       <c r="C42" t="inlineStr">
         <is>
-          <t xml:space="preserve">  TheBkuser</t>
+          <t xml:space="preserve">  김수재</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
         <is>
-          <t>선응이가 맛있는거 먹을때 말안하면 말 많이한건 맛이 없다는거네... ㅠㅠㅠㅠ</t>
+          <t>이거 보고 소맥에 후추 넣었다가 다 먹고 치울 때 까지 후추맛남 ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1197,12 +1197,12 @@
       </c>
       <c r="C43" t="inlineStr">
         <is>
-          <t xml:space="preserve">  임마뭐</t>
+          <t xml:space="preserve">  아름다운 세상아</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
         <is>
-          <t>와 형주햄 요리 진.짜 잘한다</t>
+          <t>말없이 먹는 거만 봐도 재밌긴해 ㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1215,12 +1215,12 @@
       </c>
       <c r="C44" t="inlineStr">
         <is>
-          <t xml:space="preserve">  juds k</t>
+          <t xml:space="preserve">  경준</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
         <is>
-          <t>6:32 선응이형 소스를 듬뿍 찍고 다 덜어서 가져가면 무슨 소용이야ㅋㅋㅋㅋㅋ</t>
+          <t>선응이형 ㅋㅋㅋ 김ㅊ 양념 쪽갈비에 묻혀놓고 덜어내는건 모야 ㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1233,12 +1233,12 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t xml:space="preserve">  jkjk</t>
+          <t xml:space="preserve">  정진선 JEONG JINS2ON</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
         <is>
-          <t>핫소스 보고 나면 배말랭 올라와 있고 배말랭 다 보면 황룡갑 올라와 있고 마지막 디저트 핫식당 루트 좋다 맛집이야</t>
+          <t>진짜 먹고 싶다.... 조지기분 알거 같아.</t>
         </is>
       </c>
     </row>
@@ -1251,12 +1251,12 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Black</t>
+          <t xml:space="preserve">  크크루삥뽕</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
         <is>
-          <t>핫소스 소시지 가랑이에 끼우고 자르기 몰카 다시보고싶다 ㅠㅠㅠ</t>
+          <t>쪽갈비 주신분 흐뭇하게 보시겠다</t>
         </is>
       </c>
     </row>
@@ -1269,12 +1269,12 @@
       </c>
       <c r="C47" t="inlineStr">
         <is>
-          <t xml:space="preserve">  시기</t>
+          <t xml:space="preserve">  YUN찬</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
         <is>
-          <t xml:space="preserve">아니 형주님이랑 결혼하시는 분 찐 행복할 듯...요리 넘 잘해,, </t>
+          <t>난 해성이형이 제일좋아 형 행복해야해 형 사랑해!!</t>
         </is>
       </c>
     </row>
@@ -1287,12 +1287,12 @@
       </c>
       <c r="C48" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조수용</t>
+          <t xml:space="preserve">  김지원</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
         <is>
-          <t>등갈비를 구워서 바로 물이랑 김치 넣고 찜으로 먹으면 굉장히 맛있음.</t>
+          <t>현종이 형도 유튜브 시작했으면 좋겠다....!!!</t>
         </is>
       </c>
     </row>
@@ -1305,12 +1305,12 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t xml:space="preserve">  •</t>
+          <t xml:space="preserve">  김사랑스럽지</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
         <is>
-          <t>맛과 추억칸에 들어가있네ㅋㅋㅋ ㅋ ㅠㅠ 삽귀다</t>
+          <t>선응행 맥주 마실 줄 아네 맥주에 후추 넣어 먹으면 은근 맛깄음</t>
         </is>
       </c>
     </row>
@@ -1323,12 +1323,12 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t xml:space="preserve">  형주내꺼</t>
+          <t xml:space="preserve">  애옹 미</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
         <is>
-          <t>을매나 맛있으면 조지가 ,, 핫소스분들도 그렇고  다들 잘먹어서 뿌듯하네요</t>
+          <t>해성햄 진짜 아가야.. 귀여워..</t>
         </is>
       </c>
     </row>
@@ -1341,12 +1341,12 @@
       </c>
       <c r="C51" t="inlineStr">
         <is>
-          <t xml:space="preserve">  playerA34</t>
+          <t xml:space="preserve">  조수용</t>
         </is>
       </c>
       <c r="D51" t="inlineStr">
         <is>
-          <t>이때까지만 해도 선응이 머리 남아있넼ㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>등갈비를 구워서 바로 물이랑 김치 넣고 찜으로 먹으면 굉장히 맛있음.</t>
         </is>
       </c>
     </row>
@@ -1359,12 +1359,12 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t xml:space="preserve">  YUN찬</t>
+          <t xml:space="preserve">  김서진</t>
         </is>
       </c>
       <c r="D52" t="inlineStr">
         <is>
-          <t>난 해성이형이 제일좋아 형 행복해야해 형 사랑해!!</t>
+          <t>형주형은 요리할 때가 제일 sexy 해</t>
         </is>
       </c>
     </row>
@@ -1377,12 +1377,12 @@
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t xml:space="preserve">  야이젭</t>
+          <t xml:space="preserve">  야옹</t>
         </is>
       </c>
       <c r="D53" t="inlineStr">
         <is>
-          <t>광고 이렇게하면 좋아하실듯ㅋㅋ 와 마싯게땅</t>
+          <t>현종옹이 안먹어 ~~때문에 밥못먹는즁 왜케귀여우세여</t>
         </is>
       </c>
     </row>
@@ -1395,12 +1395,12 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t xml:space="preserve">  jjajajan</t>
+          <t xml:space="preserve">  주찬</t>
         </is>
       </c>
       <c r="D54" t="inlineStr">
         <is>
-          <t>맛있게 드시네요..ㅋㅋ요즘 샤로수길에 덮다에서 도전먹방하는 영상 많이 올라오는데핫소스님들도 도전 안하더라도 맛있게 먹는 모습 보고싶네요ㅎㅎ</t>
+          <t>형들 곱창 먹어주세여</t>
         </is>
       </c>
     </row>
@@ -1413,12 +1413,12 @@
       </c>
       <c r="C55" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우직</t>
+          <t xml:space="preserve">  jkjk</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
         <is>
-          <t>와 참치액넣는순간 고수라는거느꼈다</t>
+          <t>핫소스 보고 나면 배말랭 올라와 있고 배말랭 다 보면 황룡갑 올라와 있고 마지막 디저트 핫식당 루트 좋다 맛집이야</t>
         </is>
       </c>
     </row>
@@ -1431,12 +1431,12 @@
       </c>
       <c r="C56" t="inlineStr">
         <is>
-          <t xml:space="preserve">  무소식이 he so sick.</t>
+          <t xml:space="preserve">  유진</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋ왠지 배말랭이 저 뼈 가져다가 사골국 만들거 같은 불길한 예감...</t>
+          <t>광고보다 맛있게 먹네,,</t>
         </is>
       </c>
     </row>
@@ -1449,12 +1449,12 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ㄱㅟㅇㅁㅣ</t>
+          <t xml:space="preserve">  juds k</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>아닛 오늘은 핫소스 유니버스가 다 모인 날이잖아? 못참아가지고 벌써왔다.</t>
+          <t>6:32 선응이형 소스를 듬뿍 찍고 다 덜어서 가져가면 무슨 소용이야ㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1467,12 +1467,12 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t xml:space="preserve">  gp 0321</t>
+          <t xml:space="preserve">  태지</t>
         </is>
       </c>
       <c r="D58" t="inlineStr">
         <is>
-          <t>이 쪽갈비가 드디어 나오네</t>
+          <t>6:27역시... 광고할때 너무 재밌고 시끌시끌 너무 맛있게 먹더라</t>
         </is>
       </c>
     </row>
@@ -1485,12 +1485,12 @@
       </c>
       <c r="C59" t="inlineStr">
         <is>
-          <t xml:space="preserve">  돼지적금통</t>
+          <t xml:space="preserve">  우직</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>김선응 일본인 황룡갑 중국인 조지 영국견 ㄹㅇ 다문화 가족ㅋㅋ</t>
+          <t>와 참치액넣는순간 고수라는거느꼈다</t>
         </is>
       </c>
     </row>
@@ -1503,12 +1503,12 @@
       </c>
       <c r="C60" t="inlineStr">
         <is>
-          <t xml:space="preserve">  키티키티</t>
+          <t xml:space="preserve">  Fortuito_us</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>멍멍레이더 존귀♡</t>
+          <t>이때는 선응이형 머리카락이 있었구나</t>
         </is>
       </c>
     </row>
@@ -1521,12 +1521,12 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t xml:space="preserve">  재성</t>
+          <t xml:space="preserve">  Y MOMMA</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>조지 귀여웡</t>
+          <t>요리 잘하는거같아 눈대중으로 넣는거보니</t>
         </is>
       </c>
     </row>
@@ -1539,12 +1539,12 @@
       </c>
       <c r="C62" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Fortuito_us</t>
+          <t xml:space="preserve">  playerA34</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>이때는 선응이형 머리카락이 있었구나</t>
+          <t>이때까지만 해도 선응이 머리 남아있넼ㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1557,12 +1557,12 @@
       </c>
       <c r="C63" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유중혁</t>
+          <t xml:space="preserve">  조은</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
         <is>
-          <t>이제 건우형이 저 남은뼈로 사골우려서 세끼 먹으면 되겠네</t>
+          <t>괴롭히는만큼 잘해먹이네 ㅋㅋㅋㅋ선응아 부럽다ㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -1575,12 +1575,12 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t xml:space="preserve">  앞날창창 도그 (민제)</t>
+          <t xml:space="preserve">  퍽끼럽</t>
         </is>
       </c>
       <c r="D64" t="inlineStr">
         <is>
-          <t>6:20 선응이형 하정우님 느낌있네 ㅋㅋㅋ</t>
+          <t>현종이형 보면 볼수록 박명수 젊었을때같음..</t>
         </is>
       </c>
     </row>
@@ -1593,12 +1593,12 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t xml:space="preserve">  아으</t>
+          <t xml:space="preserve">  •</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
         <is>
-          <t>핫소스 배말랭 황룡갑 핫식당이 하루에 다 나오다니 이건 생일인가?</t>
+          <t>맛과 추억칸에 들어가있네ㅋㅋㅋ ㅋ ㅠㅠ 삽귀다</t>
         </is>
       </c>
     </row>
@@ -1611,12 +1611,12 @@
       </c>
       <c r="C66" t="inlineStr">
         <is>
-          <t xml:space="preserve">  태리</t>
+          <t xml:space="preserve">  민지</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
         <is>
-          <t>코파먹는거라도 상관없으니까 1일 1영상 줘</t>
+          <t>귀여워 징챠 다들 ㅠㅠ ㅋㅋㅋㅋㅋㅋ 🫶</t>
         </is>
       </c>
     </row>
@@ -1629,12 +1629,12 @@
       </c>
       <c r="C67" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우클릭</t>
+          <t xml:space="preserve">  돼지적금통</t>
         </is>
       </c>
       <c r="D67" t="inlineStr">
         <is>
-          <t>선응이형 머리밀리기 전이구나... 행복해보이네 ㅎㅎㅎㅎㅎ</t>
+          <t>김선응 일본인 황룡갑 중국인 조지 영국견 ㄹㅇ 다문화 가족ㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       </c>
       <c r="C68" t="inlineStr">
         <is>
-          <t xml:space="preserve">  HanYong Lee</t>
+          <t xml:space="preserve">  빅사이즈백살공주🌸</t>
         </is>
       </c>
       <c r="D68" t="inlineStr">
         <is>
-          <t>황룡갑이랑 동갑인 구독자만 모아서  그 중에서 사연으로 1명 초대해서 황동갑이라는 프로그램 하나만들어서 구독자랑 해성이랑같이 밥먹는 영상 매주 올라오면 재밌겠다</t>
+          <t>너뮤너뮤 좋아유 핫소스 유니버스 사랑한다규</t>
         </is>
       </c>
     </row>
@@ -1665,12 +1665,12 @@
       </c>
       <c r="C69" t="inlineStr">
         <is>
-          <t xml:space="preserve">  휘동이</t>
+          <t xml:space="preserve">  Yeeun Lee</t>
         </is>
       </c>
       <c r="D69" t="inlineStr">
         <is>
-          <t>쏜엥쥬 착착 감기네ㅋㅋㅋ엥쥬언니(?) 엥쥬누나(?)</t>
+          <t>맛있겠다 ㅠ</t>
         </is>
       </c>
     </row>
@@ -1683,12 +1683,12 @@
       </c>
       <c r="C70" t="inlineStr">
         <is>
-          <t xml:space="preserve">  S W LEEM</t>
+          <t xml:space="preserve">  유중혁</t>
         </is>
       </c>
       <c r="D70" t="inlineStr">
         <is>
-          <t>건우가없으니까 해성이 하고 상황극이 없네 ㅋㅋㅋㅋ</t>
+          <t>이제 건우형이 저 남은뼈로 사골우려서 세끼 먹으면 되겠네</t>
         </is>
       </c>
     </row>
@@ -1701,12 +1701,12 @@
       </c>
       <c r="C71" t="inlineStr">
         <is>
-          <t xml:space="preserve">  san</t>
+          <t xml:space="preserve">  앞날창창 도그 (민제)</t>
         </is>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>1:54누가 뿌셔뿌셔 바베큐맛을 다 먹어서 다행이다.</t>
+          <t>6:20 선응이형 하정우님 느낌있네 ㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1719,12 +1719,12 @@
       </c>
       <c r="C72" t="inlineStr">
         <is>
-          <t xml:space="preserve">  B B</t>
+          <t xml:space="preserve">  ㄱㅟㅇㅁㅣ</t>
         </is>
       </c>
       <c r="D72" t="inlineStr">
         <is>
-          <t>어우 비주얼 역대급이다…</t>
+          <t>아닛 오늘은 핫소스 유니버스가 다 모인 날이잖아? 못참아가지고 벌써왔다.</t>
         </is>
       </c>
     </row>
@@ -1737,12 +1737,12 @@
       </c>
       <c r="C73" t="inlineStr">
         <is>
-          <t xml:space="preserve">  무말랭</t>
+          <t xml:space="preserve">  태리</t>
         </is>
       </c>
       <c r="D73" t="inlineStr">
         <is>
-          <t>등갈비 드실 때 한조각 정도만 아무 간 하지마시고 물에 끓여서 조지 하나만 주세요ㅜ 저희 집 강아지들도 가끔 그렇게 한조각씩 주는데 앞발로 잡고 앞니로 뜯어먹는데 겁나 귀엽습니다…. 조지가 등갈비 먹을 땐 뼈를 삼킬 수 있으니 옆에서 지켜봐주세요-!!</t>
+          <t>코파먹는거라도 상관없으니까 1일 1영상 줘</t>
         </is>
       </c>
     </row>
@@ -1755,12 +1755,12 @@
       </c>
       <c r="C74" t="inlineStr">
         <is>
-          <t xml:space="preserve">  단백질바</t>
+          <t xml:space="preserve">  toleta de parretto</t>
         </is>
       </c>
       <c r="D74" t="inlineStr">
         <is>
-          <t>역시 재밌누</t>
+          <t>이제 저걸로 사골 끓일 배말랭 출동</t>
         </is>
       </c>
     </row>
@@ -1773,12 +1773,12 @@
       </c>
       <c r="C75" t="inlineStr">
         <is>
-          <t xml:space="preserve">  빅사이즈백살공주🌸</t>
+          <t xml:space="preserve">  아으</t>
         </is>
       </c>
       <c r="D75" t="inlineStr">
         <is>
-          <t>너뮤너뮤 좋아유 핫소스 유니버스 사랑한다규</t>
+          <t>핫소스 배말랭 황룡갑 핫식당이 하루에 다 나오다니 이건 생일인가?</t>
         </is>
       </c>
     </row>
@@ -1791,12 +1791,12 @@
       </c>
       <c r="C76" t="inlineStr">
         <is>
-          <t xml:space="preserve">  최다음</t>
+          <t xml:space="preserve">  야이젭</t>
         </is>
       </c>
       <c r="D76" t="inlineStr">
         <is>
-          <t>선응이형 머머리 쪽 ️</t>
+          <t>광고 이렇게하면 좋아하실듯ㅋㅋ 와 마싯게땅</t>
         </is>
       </c>
     </row>
@@ -1809,12 +1809,12 @@
       </c>
       <c r="C77" t="inlineStr">
         <is>
-          <t xml:space="preserve">  지나가는 행인</t>
+          <t xml:space="preserve">  무소식이 he so sick.</t>
         </is>
       </c>
       <c r="D77" t="inlineStr">
         <is>
-          <t>선응씨 故머리카락의 생전 개쩌는모습을 관람하도록 하겠습니다..</t>
+          <t>ㅋㅋㅋㅋ왠지 배말랭이 저 뼈 가져다가 사골국 만들거 같은 불길한 예감...</t>
         </is>
       </c>
     </row>
@@ -1827,12 +1827,12 @@
       </c>
       <c r="C78" t="inlineStr">
         <is>
-          <t xml:space="preserve">  갓냥이</t>
+          <t xml:space="preserve">  재성</t>
         </is>
       </c>
       <c r="D78" t="inlineStr">
         <is>
-          <t>이반응은 찐인데..조지도 미쳤네</t>
+          <t>조지 귀여웡</t>
         </is>
       </c>
     </row>
@@ -1845,12 +1845,12 @@
       </c>
       <c r="C79" t="inlineStr">
         <is>
-          <t xml:space="preserve">  윈도우</t>
+          <t xml:space="preserve">  키티키티</t>
         </is>
       </c>
       <c r="D79" t="inlineStr">
         <is>
-          <t>핫소스에 배말랭에 핫식당 황룡갑이건못참취~</t>
+          <t>멍멍레이더 존귀♡</t>
         </is>
       </c>
     </row>
@@ -1863,12 +1863,12 @@
       </c>
       <c r="C80" t="inlineStr">
         <is>
-          <t xml:space="preserve">  애옹 미</t>
+          <t xml:space="preserve">  S W LEEM</t>
         </is>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>오늘 쏭엥쥬햄 머리 복실복실 기욥다 ㅎㅎ</t>
+          <t>건우가없으니까 해성이 하고 상황극이 없네 ㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -1881,12 +1881,12 @@
       </c>
       <c r="C81" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Yeeun Lee</t>
+          <t xml:space="preserve">  gp 0321</t>
         </is>
       </c>
       <c r="D81" t="inlineStr">
         <is>
-          <t>맛있겠다 ㅠ</t>
+          <t>이 쪽갈비가 드디어 나오네</t>
         </is>
       </c>
     </row>
@@ -1899,12 +1899,12 @@
       </c>
       <c r="C82" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ki kiki</t>
+          <t xml:space="preserve">  B B</t>
         </is>
       </c>
       <c r="D82" t="inlineStr">
         <is>
-          <t>샐러드 먹고있는데 현타오네 ㅠㅠ</t>
+          <t>어우 비주얼 역대급이다…</t>
         </is>
       </c>
     </row>
@@ -1917,12 +1917,12 @@
       </c>
       <c r="C83" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김서진</t>
+          <t xml:space="preserve">  지나가는 행인</t>
         </is>
       </c>
       <c r="D83" t="inlineStr">
         <is>
-          <t>형주형은 요리할 때가 제일 sexy 해</t>
+          <t>선응씨 故머리카락의 생전 개쩌는모습을 관람하도록 하겠습니다..</t>
         </is>
       </c>
     </row>
@@ -1935,12 +1935,12 @@
       </c>
       <c r="C84" t="inlineStr">
         <is>
-          <t xml:space="preserve">  송형주 와이프</t>
+          <t xml:space="preserve">  mom Chan</t>
         </is>
       </c>
       <c r="D84" t="inlineStr">
         <is>
-          <t>일본인은 아니고 일반인인데 괜찮니 형주야?</t>
+          <t>혜성이 요즘 미모 무슨 일이지 왜 잘생겨보이지 왜그런거지</t>
         </is>
       </c>
     </row>
@@ -1953,12 +1953,12 @@
       </c>
       <c r="C85" t="inlineStr">
         <is>
-          <t xml:space="preserve">  야옹</t>
+          <t xml:space="preserve">  애옹 미</t>
         </is>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>현종옹이 안먹어 ~~때문에 밥못먹는즁 왜케귀여우세여</t>
+          <t>오늘 쏭엥쥬햄 머리 복실복실 기욥다 ㅎㅎ</t>
         </is>
       </c>
     </row>
@@ -1971,12 +1971,12 @@
       </c>
       <c r="C86" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이원준</t>
+          <t xml:space="preserve">  냄새 예비 부인</t>
         </is>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>잉 형주오빠 너무좋아</t>
+          <t>오빠들 이러면 광고 안들어와...</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       </c>
       <c r="C87" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김하준</t>
+          <t xml:space="preserve">  ki kiki</t>
         </is>
       </c>
       <c r="D87" t="inlineStr">
         <is>
-          <t>핫소스 유니버스를 다보니까 좋다고 하는댯글이 많을것이다</t>
+          <t>샐러드 먹고있는데 현타오네 ㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -2007,12 +2007,12 @@
       </c>
       <c r="C88" t="inlineStr">
         <is>
-          <t xml:space="preserve">  song</t>
+          <t xml:space="preserve">  san</t>
         </is>
       </c>
       <c r="D88" t="inlineStr">
         <is>
-          <t>맥주에 후추라.. 청양고추 넣은 소주 그런 느낌인가..?</t>
+          <t>1:54누가 뿌셔뿌셔 바베큐맛을 다 먹어서 다행이다.</t>
         </is>
       </c>
     </row>
@@ -2025,12 +2025,12 @@
       </c>
       <c r="C89" t="inlineStr">
         <is>
-          <t xml:space="preserve">  주찬</t>
+          <t xml:space="preserve">  Hahahahaha89</t>
         </is>
       </c>
       <c r="D89" t="inlineStr">
         <is>
-          <t>형들 곱창 먹어주세여</t>
+          <t>룡갑이가  조지 자리 뺏었다</t>
         </is>
       </c>
     </row>
@@ -2043,12 +2043,12 @@
       </c>
       <c r="C90" t="inlineStr">
         <is>
-          <t xml:space="preserve">  닉네임</t>
+          <t xml:space="preserve">  최다음</t>
         </is>
       </c>
       <c r="D90" t="inlineStr">
         <is>
-          <t>조촐한 불닭김밥와 쪽갈비 교환</t>
+          <t>선응이형 머머리 쪽 ️</t>
         </is>
       </c>
     </row>
@@ -2061,12 +2061,12 @@
       </c>
       <c r="C91" t="inlineStr">
         <is>
-          <t xml:space="preserve">  무냫</t>
+          <t xml:space="preserve">  윈도우</t>
         </is>
       </c>
       <c r="D91" t="inlineStr">
         <is>
-          <t>김치찜 다진마늘 어디 갔어ㅠㅠ</t>
+          <t>핫소스에 배말랭에 핫식당 황룡갑이건못참취~</t>
         </is>
       </c>
     </row>
@@ -2079,12 +2079,12 @@
       </c>
       <c r="C92" t="inlineStr">
         <is>
-          <t xml:space="preserve">  또비</t>
+          <t xml:space="preserve">  조지와싱톤</t>
         </is>
       </c>
       <c r="D92" t="inlineStr">
         <is>
-          <t>조지도 생갈비 하나 주지….</t>
+          <t>선응이머리 이때는 정상이네</t>
         </is>
       </c>
     </row>
@@ -2097,12 +2097,12 @@
       </c>
       <c r="C93" t="inlineStr">
         <is>
-          <t xml:space="preserve">  나다요</t>
+          <t xml:space="preserve">  휘동이</t>
         </is>
       </c>
       <c r="D93" t="inlineStr">
         <is>
-          <t>굿즈 꼭살거야</t>
+          <t>쏜엥쥬 착착 감기네ㅋㅋㅋ엥쥬언니(?) 엥쥬누나(?)</t>
         </is>
       </c>
     </row>
@@ -2115,12 +2115,12 @@
       </c>
       <c r="C94" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유진</t>
+          <t xml:space="preserve">  또비</t>
         </is>
       </c>
       <c r="D94" t="inlineStr">
         <is>
-          <t>광고보다 맛있게 먹네,,</t>
+          <t>조지도 생갈비 하나 주지….</t>
         </is>
       </c>
     </row>
@@ -2133,12 +2133,12 @@
       </c>
       <c r="C95" t="inlineStr">
         <is>
-          <t xml:space="preserve">  mom Chan</t>
+          <t xml:space="preserve">  이원준</t>
         </is>
       </c>
       <c r="D95" t="inlineStr">
         <is>
-          <t>혜성이 요즘 미모 무슨 일이지 왜 잘생겨보이지 왜그런거지</t>
+          <t>잉 형주오빠 너무좋아</t>
         </is>
       </c>
     </row>
@@ -2151,12 +2151,12 @@
       </c>
       <c r="C96" t="inlineStr">
         <is>
-          <t xml:space="preserve">  프림포즈</t>
+          <t xml:space="preserve">  송형주 와이프</t>
         </is>
       </c>
       <c r="D96" t="inlineStr">
         <is>
-          <t>아 침고여 ㅋㅋㅋ</t>
+          <t>일본인은 아니고 일반인인데 괜찮니 형주야?</t>
         </is>
       </c>
     </row>
@@ -2169,12 +2169,12 @@
       </c>
       <c r="C97" t="inlineStr">
         <is>
-          <t xml:space="preserve">  toleta de parretto</t>
+          <t xml:space="preserve">  carpe diem</t>
         </is>
       </c>
       <c r="D97" t="inlineStr">
         <is>
-          <t>이제 저걸로 사골 끓일 배말랭 출동</t>
+          <t>김치찜 개마렵네;</t>
         </is>
       </c>
     </row>
@@ -2187,12 +2187,12 @@
       </c>
       <c r="C98" t="inlineStr">
         <is>
-          <t xml:space="preserve">  맛보기</t>
+          <t xml:space="preserve">  단백질바</t>
         </is>
       </c>
       <c r="D98" t="inlineStr">
         <is>
-          <t>해성이먹는거 진짜 중국부자같네</t>
+          <t>역시 재밌누</t>
         </is>
       </c>
     </row>
@@ -2205,12 +2205,12 @@
       </c>
       <c r="C99" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김영광</t>
+          <t xml:space="preserve">  오등복어룡</t>
         </is>
       </c>
       <c r="D99" t="inlineStr">
         <is>
-          <t>형 머리 밀렸는데 괜찮아????…</t>
+          <t>갈비는 못참지</t>
         </is>
       </c>
     </row>
@@ -2223,12 +2223,12 @@
       </c>
       <c r="C100" t="inlineStr">
         <is>
-          <t xml:space="preserve">  국그릇핑크뽕</t>
+          <t xml:space="preserve">  지원</t>
         </is>
       </c>
       <c r="D100" t="inlineStr">
         <is>
-          <t>형주 음식은 못참지 핡</t>
+          <t>현종이형 박명수 젊을때 닮았어</t>
         </is>
       </c>
     </row>
@@ -2241,12 +2241,12 @@
       </c>
       <c r="C101" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유튜</t>
+          <t xml:space="preserve">  song</t>
         </is>
       </c>
       <c r="D101" t="inlineStr">
         <is>
-          <t>팬이 주신 거 이랬는데 아 그래~? 가 끝이야?ㅋㅋ</t>
+          <t>맥주에 후추라.. 청양고추 넣은 소주 그런 느낌인가..?</t>
         </is>
       </c>
     </row>
@@ -2259,12 +2259,12 @@
       </c>
       <c r="C102" t="inlineStr">
         <is>
-          <t xml:space="preserve">  퍽끼럽</t>
+          <t xml:space="preserve">  맛보기</t>
         </is>
       </c>
       <c r="D102" t="inlineStr">
         <is>
-          <t>현종이형 보면 볼수록 박명수 젊었을때같음..</t>
+          <t>해성이먹는거 진짜 중국부자같네</t>
         </is>
       </c>
     </row>
@@ -2277,12 +2277,12 @@
       </c>
       <c r="C103" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Y MOMMA</t>
+          <t xml:space="preserve">  김하준</t>
         </is>
       </c>
       <c r="D103" t="inlineStr">
         <is>
-          <t>요리 잘하는거같아 눈대중으로 넣는거보니</t>
+          <t>핫소스 유니버스를 다보니까 좋다고 하는댯글이 많을것이다</t>
         </is>
       </c>
     </row>
@@ -2295,12 +2295,12 @@
       </c>
       <c r="C104" t="inlineStr">
         <is>
-          <t xml:space="preserve">  핫한 쇼츠 정보들 모음</t>
+          <t xml:space="preserve">  서무진</t>
         </is>
       </c>
       <c r="D104" t="inlineStr">
         <is>
-          <t>현종이형 유튜버 워커님 닮은듯 ㅋㅋㅋㅎ</t>
+          <t>말랭이형 못 먹은거야..??</t>
         </is>
       </c>
     </row>
@@ -2313,12 +2313,12 @@
       </c>
       <c r="C105" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조지와싱톤</t>
+          <t xml:space="preserve">  이수진</t>
         </is>
       </c>
       <c r="D105" t="inlineStr">
         <is>
-          <t>선응이머리 이때는 정상이네</t>
+          <t>선응이형 머리털 이거 먹고 밀었나보네</t>
         </is>
       </c>
     </row>
@@ -2331,12 +2331,12 @@
       </c>
       <c r="C106" t="inlineStr">
         <is>
-          <t xml:space="preserve">  채원</t>
+          <t xml:space="preserve">  채용기</t>
         </is>
       </c>
       <c r="D106" t="inlineStr">
         <is>
-          <t>맥주에 후추를?..??????</t>
+          <t>현종이 뭔가 파닥몬 닮았다</t>
         </is>
       </c>
     </row>
@@ -2349,12 +2349,12 @@
       </c>
       <c r="C107" t="inlineStr">
         <is>
-          <t xml:space="preserve">  유너니</t>
+          <t xml:space="preserve">  닉네임</t>
         </is>
       </c>
       <c r="D107" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
+          <t>조촐한 불닭김밥와 쪽갈비 교환</t>
         </is>
       </c>
     </row>
@@ -2367,12 +2367,12 @@
       </c>
       <c r="C108" t="inlineStr">
         <is>
-          <t xml:space="preserve">  문원</t>
+          <t xml:space="preserve">  현지</t>
         </is>
       </c>
       <c r="D108" t="inlineStr">
         <is>
-          <t>9:01 조지ㅠㅠㅠ</t>
+          <t>보면 볼 수록 현종쓰랑 조지랑 닮은거같은건 기분탓인가</t>
         </is>
       </c>
     </row>
@@ -2385,12 +2385,12 @@
       </c>
       <c r="C109" t="inlineStr">
         <is>
-          <t xml:space="preserve">  왕자림</t>
+          <t xml:space="preserve">  섭</t>
         </is>
       </c>
       <c r="D109" t="inlineStr">
         <is>
-          <t>송형주 섹시하다 사랑해️</t>
+          <t>근데 선응이형 머리가 조금 자랐넹 ???? ㅋ..밀어 !!!!</t>
         </is>
       </c>
     </row>
@@ -2403,12 +2403,12 @@
       </c>
       <c r="C110" t="inlineStr">
         <is>
-          <t xml:space="preserve">  bin08</t>
+          <t xml:space="preserve">  오리목뼈먹자는말에신난랄로쉐</t>
         </is>
       </c>
       <c r="D110" t="inlineStr">
         <is>
-          <t>TMI-해성이 가요제 준비중!</t>
+          <t>조지 줄꺼면 그냥 대충 하나 따로 몇개 꺼내서 삶아서 조지주지 자기들만 입이여 ~</t>
         </is>
       </c>
     </row>
@@ -2421,12 +2421,12 @@
       </c>
       <c r="C111" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ㅋ</t>
+          <t xml:space="preserve">  무냫</t>
         </is>
       </c>
       <c r="D111" t="inlineStr">
         <is>
-          <t>언제 먹나 했네ㅋ 기다렸잖아</t>
+          <t>김치찜 다진마늘 어디 갔어ㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -2439,12 +2439,12 @@
       </c>
       <c r="C112" t="inlineStr">
         <is>
-          <t xml:space="preserve">  은우 오빠 바라기</t>
+          <t xml:space="preserve">  나다요</t>
         </is>
       </c>
       <c r="D112" t="inlineStr">
         <is>
-          <t>4:12 ㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅋㅎㅋㅎ</t>
+          <t>굿즈 꼭살거야</t>
         </is>
       </c>
     </row>
@@ -2457,12 +2457,12 @@
       </c>
       <c r="C113" t="inlineStr">
         <is>
-          <t xml:space="preserve">  오리목뼈먹자는말에신난랄로쉐</t>
+          <t xml:space="preserve">  핫한 쇼츠 정보들 모음</t>
         </is>
       </c>
       <c r="D113" t="inlineStr">
         <is>
-          <t>조지 줄꺼면 그냥 대충 하나 따로 몇개 꺼내서 삶아서 조지주지 자기들만 입이여 ~</t>
+          <t>현종이형 유튜버 워커님 닮은듯 ㅋㅋㅋㅎ</t>
         </is>
       </c>
     </row>
@@ -2475,12 +2475,12 @@
       </c>
       <c r="C114" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ᄋᄋ</t>
+          <t xml:space="preserve">  프림포즈</t>
         </is>
       </c>
       <c r="D114" t="inlineStr">
         <is>
-          <t>3:56 귀신나옴 ㄹㅇ</t>
+          <t>아 침고여 ㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -2493,12 +2493,12 @@
       </c>
       <c r="C115" t="inlineStr">
         <is>
-          <t xml:space="preserve">  하마궁뎅이</t>
+          <t xml:space="preserve">  성민 이</t>
         </is>
       </c>
       <c r="D115" t="inlineStr">
         <is>
-          <t>볼 때마다 다라라라라 하는 브금이 너무 무서워요..ㅠ</t>
+          <t>선응이형 이제 민 머리로 나오는거지??</t>
         </is>
       </c>
     </row>
@@ -2511,12 +2511,12 @@
       </c>
       <c r="C116" t="inlineStr">
         <is>
-          <t xml:space="preserve">  바비</t>
+          <t xml:space="preserve">  ㅋ</t>
         </is>
       </c>
       <c r="D116" t="inlineStr">
         <is>
-          <t>여러분 제 닉넴 추천받아요~!선응부인 선응머리카락 선응김치 선응철딱서니선응셔틀 선응떡 조지부인 선응조지"기"사랑해</t>
+          <t>언제 먹나 했네ㅋ 기다렸잖아</t>
         </is>
       </c>
     </row>
@@ -2529,12 +2529,12 @@
       </c>
       <c r="C117" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Sujin C</t>
+          <t xml:space="preserve">  김영광</t>
         </is>
       </c>
       <c r="D117" t="inlineStr">
         <is>
-          <t>와 미치짜</t>
+          <t>형 머리 밀렸는데 괜찮아????…</t>
         </is>
       </c>
     </row>
@@ -2547,12 +2547,12 @@
       </c>
       <c r="C118" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Hahahahaha89</t>
+          <t xml:space="preserve">  유튜</t>
         </is>
       </c>
       <c r="D118" t="inlineStr">
         <is>
-          <t>룡갑이가  조지 자리 뺏었다</t>
+          <t>팬이 주신 거 이랬는데 아 그래~? 가 끝이야?ㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -2565,12 +2565,12 @@
       </c>
       <c r="C119" t="inlineStr">
         <is>
-          <t xml:space="preserve">  지원</t>
+          <t xml:space="preserve">  꽃지</t>
         </is>
       </c>
       <c r="D119" t="inlineStr">
         <is>
-          <t>현종이형 박명수 젊을때 닮았어</t>
+          <t>해성이 살빠진거 같네?!</t>
         </is>
       </c>
     </row>
@@ -2583,12 +2583,12 @@
       </c>
       <c r="C120" t="inlineStr">
         <is>
-          <t xml:space="preserve">  Jungwon HWANG</t>
+          <t xml:space="preserve">  바비</t>
         </is>
       </c>
       <c r="D120" t="inlineStr">
         <is>
-          <t>핫데이다!</t>
+          <t>여러분 제 닉넴 추천받아요~!선응부인 선응머리카락 선응김치 선응철딱서니선응셔틀 선응떡 조지부인 선응조지"기"사랑해</t>
         </is>
       </c>
     </row>
@@ -2601,12 +2601,12 @@
       </c>
       <c r="C121" t="inlineStr">
         <is>
-          <t xml:space="preserve">  꽃지</t>
+          <t xml:space="preserve">  Sujin C</t>
         </is>
       </c>
       <c r="D121" t="inlineStr">
         <is>
-          <t>해성이 살빠진거 같네?!</t>
+          <t>와 미치짜</t>
         </is>
       </c>
     </row>
@@ -2619,12 +2619,12 @@
       </c>
       <c r="C122" t="inlineStr">
         <is>
-          <t xml:space="preserve">  바보 듀댜</t>
+          <t xml:space="preserve">  bin08</t>
         </is>
       </c>
       <c r="D122" t="inlineStr">
         <is>
-          <t>쪽~♡</t>
+          <t>TMI-해성이 가요제 준비중!</t>
         </is>
       </c>
     </row>
@@ -2637,12 +2637,12 @@
       </c>
       <c r="C123" t="inlineStr">
         <is>
-          <t xml:space="preserve">  현지</t>
+          <t xml:space="preserve">  채원</t>
         </is>
       </c>
       <c r="D123" t="inlineStr">
         <is>
-          <t>보면 볼 수록 현종쓰랑 조지랑 닮은거같은건 기분탓인가</t>
+          <t>맥주에 후추를?..??????</t>
         </is>
       </c>
     </row>
@@ -2655,12 +2655,12 @@
       </c>
       <c r="C124" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우리들의구글생활</t>
+          <t xml:space="preserve">  호박</t>
         </is>
       </c>
       <c r="D124" t="inlineStr">
         <is>
-          <t>오늘도 출첵!!!!!</t>
+          <t>선응이 오른쪽 제발 좀 안나오게 할 방법없뉴</t>
         </is>
       </c>
     </row>
@@ -2673,12 +2673,12 @@
       </c>
       <c r="C125" t="inlineStr">
         <is>
-          <t xml:space="preserve">  서무진</t>
+          <t xml:space="preserve">  문원</t>
         </is>
       </c>
       <c r="D125" t="inlineStr">
         <is>
-          <t>말랭이형 못 먹은거야..??</t>
+          <t>9:01 조지ㅠㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -2691,12 +2691,12 @@
       </c>
       <c r="C126" t="inlineStr">
         <is>
-          <t xml:space="preserve">  코박사</t>
+          <t xml:space="preserve">  유너니</t>
         </is>
       </c>
       <c r="D126" t="inlineStr">
         <is>
-          <t>조지 먹을뼈가 많겠네요 ㅎㅎ</t>
+          <t>ㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -2709,12 +2709,12 @@
       </c>
       <c r="C127" t="inlineStr">
         <is>
-          <t xml:space="preserve">  에혀</t>
+          <t xml:space="preserve">  조상익</t>
         </is>
       </c>
       <c r="D127" t="inlineStr">
         <is>
-          <t>볼거많아 좋은 날 ㅎㅎ</t>
+          <t>다들 군대취사반 출신들이신가?</t>
         </is>
       </c>
     </row>
@@ -2727,12 +2727,12 @@
       </c>
       <c r="C128" t="inlineStr">
         <is>
-          <t xml:space="preserve">  오등복어룡</t>
+          <t xml:space="preserve">  은우 오빠 바라기</t>
         </is>
       </c>
       <c r="D128" t="inlineStr">
         <is>
-          <t>갈비는 못참지</t>
+          <t>4:12 ㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅎㅎㅋㅎㅋㅎㅋㅎㅋㅎㅋㅋㅎㅋㅎ</t>
         </is>
       </c>
     </row>
@@ -2745,12 +2745,12 @@
       </c>
       <c r="C129" t="inlineStr">
         <is>
-          <t xml:space="preserve">  채용기</t>
+          <t xml:space="preserve">  하마궁뎅이</t>
         </is>
       </c>
       <c r="D129" t="inlineStr">
         <is>
-          <t>현종이 뭔가 파닥몬 닮았다</t>
+          <t>볼 때마다 다라라라라 하는 브금이 너무 무서워요..ㅠ</t>
         </is>
       </c>
     </row>
@@ -2763,12 +2763,12 @@
       </c>
       <c r="C130" t="inlineStr">
         <is>
-          <t xml:space="preserve">  fsda fsd</t>
+          <t xml:space="preserve">  혀니</t>
         </is>
       </c>
       <c r="D130" t="inlineStr">
         <is>
-          <t>오옹 나이스</t>
+          <t>말랭님은 어디가셨나요..?</t>
         </is>
       </c>
     </row>
@@ -2781,12 +2781,12 @@
       </c>
       <c r="C131" t="inlineStr">
         <is>
-          <t xml:space="preserve">  성민 이</t>
+          <t xml:space="preserve">  fsda fsd</t>
         </is>
       </c>
       <c r="D131" t="inlineStr">
         <is>
-          <t>선응이형 이제 민 머리로 나오는거지??</t>
+          <t>오옹 나이스</t>
         </is>
       </c>
     </row>
@@ -2799,12 +2799,12 @@
       </c>
       <c r="C132" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이건우</t>
+          <t xml:space="preserve">  ᄋᄋ</t>
         </is>
       </c>
       <c r="D132" t="inlineStr">
         <is>
-          <t>여기에는 아직 머리가 있네...</t>
+          <t>3:56 귀신나옴 ㄹㅇ</t>
         </is>
       </c>
     </row>
@@ -2817,12 +2817,12 @@
       </c>
       <c r="C133" t="inlineStr">
         <is>
-          <t xml:space="preserve">  우당탕탕 무깔라</t>
+          <t xml:space="preserve">  왕자림</t>
         </is>
       </c>
       <c r="D133" t="inlineStr">
         <is>
-          <t>최고 최고 최고예요</t>
+          <t>송형주 섹시하다 사랑해️</t>
         </is>
       </c>
     </row>
@@ -2835,12 +2835,12 @@
       </c>
       <c r="C134" t="inlineStr">
         <is>
-          <t xml:space="preserve">  carpe diem</t>
+          <t xml:space="preserve">  고냥이</t>
         </is>
       </c>
       <c r="D134" t="inlineStr">
         <is>
-          <t>김치찜 개마렵네;</t>
+          <t>현종이형 그만 나오면 안되나</t>
         </is>
       </c>
     </row>
@@ -2853,12 +2853,12 @@
       </c>
       <c r="C135" t="inlineStr">
         <is>
-          <t xml:space="preserve">  박성진</t>
+          <t xml:space="preserve">  코박사</t>
         </is>
       </c>
       <c r="D135" t="inlineStr">
         <is>
-          <t>6:57 조지는...?</t>
+          <t>조지 먹을뼈가 많겠네요 ㅎㅎ</t>
         </is>
       </c>
     </row>
@@ -2871,12 +2871,12 @@
       </c>
       <c r="C136" t="inlineStr">
         <is>
-          <t xml:space="preserve">  혀니</t>
+          <t xml:space="preserve">  조건영</t>
         </is>
       </c>
       <c r="D136" t="inlineStr">
         <is>
-          <t>말랭님은 어디가셨나요..?</t>
+          <t>괜히봣어 침고여</t>
         </is>
       </c>
     </row>
@@ -2889,12 +2889,12 @@
       </c>
       <c r="C137" t="inlineStr">
         <is>
-          <t xml:space="preserve">  정민이123</t>
+          <t xml:space="preserve">  최명</t>
         </is>
       </c>
       <c r="D137" t="inlineStr">
         <is>
-          <t>조지 종이 뭐에요??</t>
+          <t>신스틸러 졸지</t>
         </is>
       </c>
     </row>
@@ -2907,12 +2907,12 @@
       </c>
       <c r="C138" t="inlineStr">
         <is>
-          <t xml:space="preserve">  SH L</t>
+          <t xml:space="preserve">  뭐사지</t>
         </is>
       </c>
       <c r="D138" t="inlineStr">
         <is>
-          <t>04:17 조커?</t>
+          <t>가요제는 무슨가요제 연습인가요??</t>
         </is>
       </c>
     </row>
@@ -2925,12 +2925,12 @@
       </c>
       <c r="C139" t="inlineStr">
         <is>
-          <t xml:space="preserve">  최명</t>
+          <t xml:space="preserve">  권태욱</t>
         </is>
       </c>
       <c r="D139" t="inlineStr">
         <is>
-          <t>신스틸러 졸지</t>
+          <t xml:space="preserve">좋아요누름   </t>
         </is>
       </c>
     </row>
@@ -2943,12 +2943,12 @@
       </c>
       <c r="C140" t="inlineStr">
         <is>
-          <t xml:space="preserve">  섭</t>
+          <t xml:space="preserve">  Jungwon HWANG</t>
         </is>
       </c>
       <c r="D140" t="inlineStr">
         <is>
-          <t>근데 선응이형 머리가 조금 자랐넹 ???? ㅋ..밀어 !!!!</t>
+          <t>핫데이다!</t>
         </is>
       </c>
     </row>
@@ -2961,12 +2961,12 @@
       </c>
       <c r="C141" t="inlineStr">
         <is>
-          <t xml:space="preserve">  조건영</t>
+          <t xml:space="preserve">  바보 듀댜</t>
         </is>
       </c>
       <c r="D141" t="inlineStr">
         <is>
-          <t>괜히봣어 침고여</t>
+          <t>쪽~♡</t>
         </is>
       </c>
     </row>
@@ -2979,12 +2979,12 @@
       </c>
       <c r="C142" t="inlineStr">
         <is>
-          <t xml:space="preserve">  춘32</t>
+          <t xml:space="preserve">  우리들의구글생활</t>
         </is>
       </c>
       <c r="D142" t="inlineStr">
         <is>
-          <t>ㅋㅋㅋㅋ</t>
+          <t>오늘도 출첵!!!!!</t>
         </is>
       </c>
     </row>
@@ -2997,12 +2997,12 @@
       </c>
       <c r="C143" t="inlineStr">
         <is>
-          <t xml:space="preserve">  쌔끈한인생</t>
+          <t xml:space="preserve">  정민이123</t>
         </is>
       </c>
       <c r="D143" t="inlineStr">
         <is>
-          <t>여긴 머리가 있네 ㅋㅋ</t>
+          <t>조지 종이 뭐에요??</t>
         </is>
       </c>
     </row>
@@ -3015,12 +3015,12 @@
       </c>
       <c r="C144" t="inlineStr">
         <is>
-          <t xml:space="preserve">  신고</t>
+          <t xml:space="preserve">  우당탕탕 무깔라</t>
         </is>
       </c>
       <c r="D144" t="inlineStr">
         <is>
-          <t>5:20</t>
+          <t>최고 최고 최고예요</t>
         </is>
       </c>
     </row>
@@ -3033,12 +3033,12 @@
       </c>
       <c r="C145" t="inlineStr">
         <is>
-          <t xml:space="preserve">  sang</t>
+          <t xml:space="preserve">  변덕규</t>
         </is>
       </c>
       <c r="D145" t="inlineStr">
         <is>
-          <t>황룡갑 살빠졌나???</t>
+          <t>선응아  머리좀 밀어라..  이상해..</t>
         </is>
       </c>
     </row>
@@ -3051,12 +3051,12 @@
       </c>
       <c r="C146" t="inlineStr">
         <is>
-          <t xml:space="preserve">  일본 형주 부인</t>
+          <t xml:space="preserve">  sang</t>
         </is>
       </c>
       <c r="D146" t="inlineStr">
         <is>
-          <t>0:18????</t>
+          <t>황룡갑 살빠졌나???</t>
         </is>
       </c>
     </row>
@@ -3069,12 +3069,12 @@
       </c>
       <c r="C147" t="inlineStr">
         <is>
-          <t xml:space="preserve">  이수진</t>
+          <t xml:space="preserve">  이건우</t>
         </is>
       </c>
       <c r="D147" t="inlineStr">
         <is>
-          <t>선응이형 머리털 이거 먹고 밀었나보네</t>
+          <t>여기에는 아직 머리가 있네...</t>
         </is>
       </c>
     </row>
@@ -3087,12 +3087,12 @@
       </c>
       <c r="C148" t="inlineStr">
         <is>
-          <t xml:space="preserve">  권태욱</t>
+          <t xml:space="preserve">  에혀</t>
         </is>
       </c>
       <c r="D148" t="inlineStr">
         <is>
-          <t xml:space="preserve">좋아요누름   </t>
+          <t>볼거많아 좋은 날 ㅎㅎ</t>
         </is>
       </c>
     </row>
@@ -3105,12 +3105,12 @@
       </c>
       <c r="C149" t="inlineStr">
         <is>
-          <t xml:space="preserve">  현승이</t>
+          <t xml:space="preserve">  박성진</t>
         </is>
       </c>
       <c r="D149" t="inlineStr">
         <is>
-          <t>펩시 광고하시네</t>
+          <t>6:57 조지는...?</t>
         </is>
       </c>
     </row>
@@ -3123,12 +3123,12 @@
       </c>
       <c r="C150" t="inlineStr">
         <is>
-          <t xml:space="preserve">  변덕규</t>
+          <t xml:space="preserve">  신고</t>
         </is>
       </c>
       <c r="D150" t="inlineStr">
         <is>
-          <t>선응아  머리좀 밀어라..  이상해..</t>
+          <t>5:20</t>
         </is>
       </c>
     </row>
@@ -3141,12 +3141,12 @@
       </c>
       <c r="C151" t="inlineStr">
         <is>
-          <t xml:space="preserve">  도지화성간다</t>
+          <t xml:space="preserve">  일본 형주 부인</t>
         </is>
       </c>
       <c r="D151" t="inlineStr">
         <is>
-          <t>머리카락이 있네?</t>
+          <t>0:18????</t>
         </is>
       </c>
     </row>
@@ -3159,12 +3159,12 @@
       </c>
       <c r="C152" t="inlineStr">
         <is>
-          <t xml:space="preserve">  혜우주</t>
+          <t xml:space="preserve">  춘32</t>
         </is>
       </c>
       <c r="D152" t="inlineStr">
         <is>
-          <t>머리…ㅠㅠ</t>
+          <t>ㅋㅋㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -3177,12 +3177,12 @@
       </c>
       <c r="C153" t="inlineStr">
         <is>
-          <t xml:space="preserve">  양파리힝</t>
+          <t xml:space="preserve">  호지56</t>
         </is>
       </c>
       <c r="D153" t="inlineStr">
         <is>
-          <t>1등</t>
+          <t>못참지</t>
         </is>
       </c>
     </row>
@@ -3195,12 +3195,12 @@
       </c>
       <c r="C154" t="inlineStr">
         <is>
-          <t xml:space="preserve">  슈퍼토딩</t>
+          <t xml:space="preserve">  SH L</t>
         </is>
       </c>
       <c r="D154" t="inlineStr">
         <is>
-          <t>200번째 댓글 내꺼</t>
+          <t>04:17 조커?</t>
         </is>
       </c>
     </row>
@@ -3213,12 +3213,12 @@
       </c>
       <c r="C155" t="inlineStr">
         <is>
-          <t xml:space="preserve">  권기석</t>
+          <t xml:space="preserve">  현승이</t>
         </is>
       </c>
       <c r="D155" t="inlineStr">
         <is>
-          <t>호</t>
+          <t>펩시 광고하시네</t>
         </is>
       </c>
     </row>
@@ -3231,12 +3231,12 @@
       </c>
       <c r="C156" t="inlineStr">
         <is>
-          <t xml:space="preserve">  신이</t>
+          <t xml:space="preserve">  쌔끈한인생</t>
         </is>
       </c>
       <c r="D156" t="inlineStr">
         <is>
-          <t>ㅎㅅㅇ ㅇㄷㄱㄷ</t>
+          <t>여긴 머리가 있네 ㅋㅋ</t>
         </is>
       </c>
     </row>
@@ -3249,12 +3249,12 @@
       </c>
       <c r="C157" t="inlineStr">
         <is>
-          <t xml:space="preserve">  호지56</t>
+          <t xml:space="preserve">  ᄋᄋ</t>
         </is>
       </c>
       <c r="D157" t="inlineStr">
         <is>
-          <t>못참지</t>
+          <t>현종님 그만쩝쩝대세요</t>
         </is>
       </c>
     </row>
@@ -3267,12 +3267,12 @@
       </c>
       <c r="C158" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ᄒᄋᄇᄋ</t>
+          <t xml:space="preserve">  도지화성간다</t>
         </is>
       </c>
       <c r="D158" t="inlineStr">
         <is>
-          <t>ㅎㅅㅇㄷㅊ</t>
+          <t>머리카락이 있네?</t>
         </is>
       </c>
     </row>
@@ -3285,12 +3285,12 @@
       </c>
       <c r="C159" t="inlineStr">
         <is>
-          <t xml:space="preserve">  gogi</t>
+          <t xml:space="preserve">  춘32</t>
         </is>
       </c>
       <c r="D159" t="inlineStr">
         <is>
-          <t>오</t>
+          <t>베댓</t>
         </is>
       </c>
     </row>
@@ -3303,12 +3303,12 @@
       </c>
       <c r="C160" t="inlineStr">
         <is>
-          <t xml:space="preserve">  뭐사지</t>
+          <t xml:space="preserve">  슈퍼토딩</t>
         </is>
       </c>
       <c r="D160" t="inlineStr">
         <is>
-          <t>가요제는 무슨가요제 연습인가요??</t>
+          <t>200번째 댓글 내꺼</t>
         </is>
       </c>
     </row>
@@ -3321,12 +3321,12 @@
       </c>
       <c r="C161" t="inlineStr">
         <is>
-          <t xml:space="preserve">  g5p 123</t>
+          <t xml:space="preserve">  김자경</t>
         </is>
       </c>
       <c r="D161" t="inlineStr">
         <is>
-          <t>ㄷ</t>
+          <t>6분57초부터 안봅니다</t>
         </is>
       </c>
     </row>
@@ -3339,12 +3339,12 @@
       </c>
       <c r="C162" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김철민</t>
+          <t xml:space="preserve">  g5p 123</t>
         </is>
       </c>
       <c r="D162" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>ㄷ</t>
         </is>
       </c>
     </row>
@@ -3357,12 +3357,12 @@
       </c>
       <c r="C163" t="inlineStr">
         <is>
-          <t xml:space="preserve">  하랑 정</t>
+          <t xml:space="preserve">  혜우주</t>
         </is>
       </c>
       <c r="D163" t="inlineStr">
         <is>
-          <t>하튜</t>
+          <t>머리…ㅠㅠ</t>
         </is>
       </c>
     </row>
@@ -3375,12 +3375,12 @@
       </c>
       <c r="C164" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ???</t>
+          <t xml:space="preserve">  양파리힝</t>
         </is>
       </c>
       <c r="D164" t="inlineStr">
         <is>
-          <t>39</t>
+          <t>1등</t>
         </is>
       </c>
     </row>
@@ -3393,12 +3393,12 @@
       </c>
       <c r="C165" t="inlineStr">
         <is>
-          <t xml:space="preserve">  호박</t>
+          <t xml:space="preserve">  권기석</t>
         </is>
       </c>
       <c r="D165" t="inlineStr">
         <is>
-          <t>선응이 오른쪽 제발 좀 안나오게 할 방법없뉴</t>
+          <t>호</t>
         </is>
       </c>
     </row>
@@ -3411,12 +3411,12 @@
       </c>
       <c r="C166" t="inlineStr">
         <is>
-          <t xml:space="preserve">  임상현</t>
+          <t xml:space="preserve">  신이</t>
         </is>
       </c>
       <c r="D166" t="inlineStr">
         <is>
-          <t>ㅈ</t>
+          <t>ㅎㅅㅇ ㅇㄷㄱㄷ</t>
         </is>
       </c>
     </row>
@@ -3429,12 +3429,12 @@
       </c>
       <c r="C167" t="inlineStr">
         <is>
-          <t xml:space="preserve">  ᄋᄋ</t>
+          <t xml:space="preserve">  ᄒᄋᄇᄋ</t>
         </is>
       </c>
       <c r="D167" t="inlineStr">
         <is>
-          <t>현종님 그만쩝쩝대세요</t>
+          <t>ㅎㅅㅇㄷㅊ</t>
         </is>
       </c>
     </row>
@@ -3447,12 +3447,12 @@
       </c>
       <c r="C168" t="inlineStr">
         <is>
-          <t xml:space="preserve">  김자경</t>
+          <t xml:space="preserve">  gogi</t>
         </is>
       </c>
       <c r="D168" t="inlineStr">
         <is>
-          <t>6분57초부터 안봅니다</t>
+          <t>오</t>
         </is>
       </c>
     </row>
@@ -3465,12 +3465,12 @@
       </c>
       <c r="C169" t="inlineStr">
         <is>
-          <t xml:space="preserve">  춘32</t>
+          <t xml:space="preserve">  임상현</t>
         </is>
       </c>
       <c r="D169" t="inlineStr">
         <is>
-          <t>베댓</t>
+          <t>ㅈ</t>
         </is>
       </c>
     </row>
@@ -3483,12 +3483,12 @@
       </c>
       <c r="C170" t="inlineStr">
         <is>
-          <t xml:space="preserve">  고냥이</t>
+          <t xml:space="preserve">  엘리트 킴</t>
         </is>
       </c>
       <c r="D170" t="inlineStr">
         <is>
-          <t>현종이형 그만 나오면 안되나</t>
+          <t>2</t>
         </is>
       </c>
     </row>
@@ -3501,10 +3501,46 @@
       </c>
       <c r="C171" t="inlineStr">
         <is>
-          <t xml:space="preserve">  엘리트 킴</t>
+          <t xml:space="preserve">  ???</t>
         </is>
       </c>
       <c r="D171" t="inlineStr">
+        <is>
+          <t>39</t>
+        </is>
+      </c>
+    </row>
+    <row r="172">
+      <c r="A172" s="1" t="n">
+        <v>170</v>
+      </c>
+      <c r="B172" t="n">
+        <v>170</v>
+      </c>
+      <c r="C172" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  하랑 정</t>
+        </is>
+      </c>
+      <c r="D172" t="inlineStr">
+        <is>
+          <t>하튜</t>
+        </is>
+      </c>
+    </row>
+    <row r="173">
+      <c r="A173" s="1" t="n">
+        <v>171</v>
+      </c>
+      <c r="B173" t="n">
+        <v>171</v>
+      </c>
+      <c r="C173" t="inlineStr">
+        <is>
+          <t xml:space="preserve">  김철민</t>
+        </is>
+      </c>
+      <c r="D173" t="inlineStr">
         <is>
           <t>2</t>
         </is>
